--- a/StandardDeck.xlsx
+++ b/StandardDeck.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Documents\repos\UnicodeCards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{65400BAE-9DF5-4C7C-B714-8F116B073B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CA3D14-7C2B-4DB5-AE86-2131F484F1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="3490" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-19310" yWindow="3490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StandardDeck" sheetId="1" r:id="rId1"/>
@@ -23,48 +23,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="220">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Suit</t>
-  </si>
-  <si>
-    <t>Symbol</t>
-  </si>
-  <si>
     <t>Ace of Spades</t>
   </si>
   <si>
-    <t>Ace</t>
-  </si>
-  <si>
-    <t>Spades</t>
-  </si>
-  <si>
     <t>Ace of Hearts</t>
   </si>
   <si>
-    <t>Hearts</t>
-  </si>
-  <si>
     <t>Ace of Diamonds</t>
   </si>
   <si>
-    <t>Diamonds</t>
-  </si>
-  <si>
     <t>Ace of Clubs</t>
   </si>
   <si>
-    <t>Clubs</t>
-  </si>
-  <si>
     <t>Jack of Spades</t>
   </si>
   <si>
-    <t>Jack</t>
-  </si>
-  <si>
     <t>Jack of Hearts</t>
   </si>
   <si>
@@ -77,9 +50,6 @@
     <t>Queen of Spades</t>
   </si>
   <si>
-    <t>Queen</t>
-  </si>
-  <si>
     <t>Queen of Hearts</t>
   </si>
   <si>
@@ -92,9 +62,6 @@
     <t>King of Spades</t>
   </si>
   <si>
-    <t>King</t>
-  </si>
-  <si>
     <t>King of Hearts</t>
   </si>
   <si>
@@ -524,9 +491,6 @@
     <t>🃞</t>
   </si>
   <si>
-    <t>Codepoint</t>
-  </si>
-  <si>
     <t>1F0A1</t>
   </si>
   <si>
@@ -681,12 +645,48 @@
   </si>
   <si>
     <t>1F0DE</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>suit</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>codepoint</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>♠</t>
+  </si>
+  <si>
+    <t>♥</t>
+  </si>
+  <si>
+    <t>♦</t>
+  </si>
+  <si>
+    <t>♣</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1602,11 +1602,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="K10:L10"/>
+      <selection activeCell="B4" sqref="A1:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1617,744 +1617,744 @@
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B6" s="8">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B8" s="8">
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B10" s="8">
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B11" s="8">
         <v>3</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B12" s="8">
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B13" s="8">
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B14" s="8">
         <v>4</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B15" s="8">
         <v>4</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B16" s="8">
         <v>4</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B17" s="8">
         <v>4</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B18" s="8">
         <v>5</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B19" s="8">
         <v>5</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B20" s="8">
         <v>5</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B21" s="8">
         <v>5</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B22" s="8">
         <v>6</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B23" s="8">
         <v>6</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B24" s="8">
         <v>6</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B25" s="8">
         <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B26" s="8">
         <v>7</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B27" s="8">
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B28" s="8">
         <v>7</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B29" s="8">
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B30" s="8">
         <v>8</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B31" s="8">
         <v>8</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B32" s="8">
         <v>8</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B33" s="8">
         <v>8</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B34" s="8">
         <v>9</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B35" s="8">
         <v>9</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B36" s="8">
         <v>9</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B37" s="8">
         <v>9</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B38" s="8">
         <v>10</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B39" s="8">
         <v>10</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B40" s="8">
         <v>10</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B41" s="8">
         <v>10</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2363,7 +2363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
@@ -2379,575 +2379,575 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/StandardDeck.xlsx
+++ b/StandardDeck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Documents\repos\UnicodeCards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CA3D14-7C2B-4DB5-AE86-2131F484F1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A998BF-EAB7-4EFE-9161-DD76BDA79EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="3490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,9 +653,6 @@
     <t>suit</t>
   </si>
   <si>
-    <t>symbol</t>
-  </si>
-  <si>
     <t>codepoint</t>
   </si>
   <si>
@@ -681,6 +678,9 @@
   </si>
   <si>
     <t>♣</t>
+  </si>
+  <si>
+    <t>rank</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1606,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:D53"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1620,13 +1620,13 @@
         <v>208</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1634,10 +1634,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>156</v>
@@ -1648,10 +1648,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>157</v>
@@ -1662,10 +1662,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>158</v>
@@ -1676,10 +1676,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>159</v>
@@ -1693,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>160</v>
@@ -1707,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>161</v>
@@ -1721,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>162</v>
@@ -1735,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>163</v>
@@ -1749,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>164</v>
@@ -1763,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>165</v>
@@ -1777,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>166</v>
@@ -1791,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>167</v>
@@ -1805,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>168</v>
@@ -1819,7 +1819,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>169</v>
@@ -1833,7 +1833,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>170</v>
@@ -1847,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>171</v>
@@ -1861,7 +1861,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>172</v>
@@ -1875,7 +1875,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>173</v>
@@ -1889,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>174</v>
@@ -1903,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>175</v>
@@ -1917,7 +1917,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>176</v>
@@ -1931,7 +1931,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>177</v>
@@ -1945,7 +1945,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>178</v>
@@ -1959,7 +1959,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>179</v>
@@ -1973,7 +1973,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>180</v>
@@ -1987,7 +1987,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>181</v>
@@ -2001,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>182</v>
@@ -2015,7 +2015,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>183</v>
@@ -2029,7 +2029,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>184</v>
@@ -2043,7 +2043,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>185</v>
@@ -2057,7 +2057,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>186</v>
@@ -2071,7 +2071,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>187</v>
@@ -2085,7 +2085,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>188</v>
@@ -2099,7 +2099,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>189</v>
@@ -2113,7 +2113,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>190</v>
@@ -2127,7 +2127,7 @@
         <v>9</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>191</v>
@@ -2141,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>192</v>
@@ -2155,7 +2155,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>193</v>
@@ -2169,7 +2169,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>194</v>
@@ -2183,7 +2183,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>195</v>
@@ -2194,10 +2194,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>196</v>
@@ -2208,10 +2208,10 @@
         <v>5</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>197</v>
@@ -2222,10 +2222,10 @@
         <v>6</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>198</v>
@@ -2236,10 +2236,10 @@
         <v>7</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>199</v>
@@ -2250,10 +2250,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>200</v>
@@ -2264,10 +2264,10 @@
         <v>9</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>201</v>
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>202</v>
@@ -2292,10 +2292,10 @@
         <v>11</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>203</v>
@@ -2306,10 +2306,10 @@
         <v>12</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>204</v>
@@ -2320,10 +2320,10 @@
         <v>13</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>205</v>
@@ -2334,10 +2334,10 @@
         <v>14</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>206</v>
@@ -2348,10 +2348,10 @@
         <v>15</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>207</v>
